--- a/media/readme/TestCases.xlsx
+++ b/media/readme/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alixo\OneDrive\Documents\Code Institute\Milestone 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92374F40-72D6-4601-94A7-34C36ED82488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8975F74D-11B0-4297-8806-36D7B2FFD688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{1E21F8E5-6BC5-45B3-A9A1-EE992B8A1698}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1E21F8E5-6BC5-45B3-A9A1-EE992B8A1698}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -241,15 +241,6 @@
     <t>Test the website-can you add a blog.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Open the website in the chrome browser.https://github.com/ailisc97/Milestone_project_four
-2.  Sign in or Sign up
-3. Click Add Blog on the nav bar.
-4. Fill in all information.
-5.Click the add button.
-6. Blog should be up and people can view.
-</t>
-  </si>
-  <si>
     <t>The website works and people can create new blogs onto the website</t>
   </si>
   <si>
@@ -367,6 +358,15 @@
   </si>
   <si>
     <t>Test 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the website in the chrome browser.https://github.com/ailisc97/Milestone_project_four
+2.   Sign in as a superuser.
+3. Go into /admin.
+4. Fill in all information.
+5.Click the add button.
+6. Blog should be up and people can view.
+</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F617B187-45F8-4A21-BCF8-24960BB4C2BA}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,13 +872,13 @@
         <v>61</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>38</v>
@@ -892,13 +892,13 @@
         <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>50</v>
@@ -915,16 +915,16 @@
         <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>38</v>
@@ -941,7 +941,7 @@
         <v>51</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>52</v>
@@ -987,13 +987,13 @@
         <v>56</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>38</v>
@@ -1010,7 +1010,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -1033,7 +1033,7 @@
         <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>43</v>
@@ -1053,16 +1053,16 @@
         <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>38</v>
@@ -1073,19 +1073,19 @@
     </row>
     <row r="14" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="D14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>38</v>
@@ -1096,19 +1096,19 @@
     </row>
     <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>38</v>
@@ -1119,13 +1119,13 @@
     </row>
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>45</v>
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07F470B-46D3-409B-8DA5-955D91E9D2A1}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -1201,7 +1201,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>30</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -1265,10 +1265,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1276,7 +1276,7 @@
         <v>37</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
